--- a/02-Avancado1-Funcoes/05-FuncoesLogica/Aula-21-ExcelAvancado1-Logica-SE-E-OU-NAO-FuncoesLogica.xlsx
+++ b/02-Avancado1-Funcoes/05-FuncoesLogica/Aula-21-ExcelAvancado1-Logica-SE-E-OU-NAO-FuncoesLogica.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robson.svaamonde\Downloads\msexcel\02-Avancado1-Funcoes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robson.svaamonde\Documents\msexcel\02-Avancado1-Funcoes\05-FuncoesLogica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3488A6-E50B-4655-A865-D06542C41CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260CF1DA-06C3-4CE1-B08A-9173FC500FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Funções de Comparação" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,7 @@
     <author>tc={E10E0225-5CAE-4852-B85D-AC5A5CBE3872}</author>
     <author>tc={FC051E2C-C62E-444A-9480-506B5D65C0D8}</author>
     <author>tc={03810661-3997-4886-AF47-1686FD607D5F}</author>
+    <author>tc={65CDBFEF-7632-4F91-8634-ECF2D25DF3FE}</author>
   </authors>
   <commentList>
     <comment ref="D8" authorId="0" shapeId="0" xr:uid="{280775CA-3286-4778-8D8D-04FBDC1C7E40}">
@@ -75,12 +76,20 @@
     Utilizar a Função =SE(SE()) Encadeado</t>
       </text>
     </comment>
+    <comment ref="H8" authorId="4" shapeId="0" xr:uid="{65CDBFEF-7632-4F91-8634-ECF2D25DF3FE}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Utilizar a Função =SES()</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="86">
   <si>
     <t>Primeiro</t>
   </si>
@@ -601,12 +610,59 @@
   <si>
     <t>https://support.microsoft.com/pt-br/office/fun%C3%A7%C3%A3o-ses-36329a26-37b2-467c-972b-4a39bd951d45</t>
   </si>
+  <si>
+    <t>E Verdadeiro (True)</t>
+  </si>
+  <si>
+    <t>E Falso (False)</t>
+  </si>
+  <si>
+    <t>OU Verdadeiro (True)</t>
+  </si>
+  <si>
+    <t>OU Falso (False)</t>
+  </si>
+  <si>
+    <r>
+      <t>SES</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  Excel </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SES</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Vaamonde</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color indexed="63"/>
@@ -804,6 +860,12 @@
       <color rgb="FF0070C0"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1302,8 +1364,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>95030</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>459465</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>144034</xdr:rowOff>
     </xdr:to>
@@ -1401,16 +1463,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>481374</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>8237</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>500424</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>179687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>443283</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>2198</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>462333</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>173648</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1439,8 +1501,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7625124" y="191410"/>
-          <a:ext cx="2218601" cy="907628"/>
+          <a:off x="9892074" y="179687"/>
+          <a:ext cx="2219334" cy="898836"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1451,14 +1513,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>41413</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12838</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>199847</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171272</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>183376</xdr:rowOff>
     </xdr:to>
@@ -1489,8 +1551,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9450456" y="0"/>
-          <a:ext cx="4448826" cy="4649773"/>
+          <a:off x="11661913" y="0"/>
+          <a:ext cx="4425634" cy="4498201"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1849,6 +1911,9 @@
   <threadedComment ref="G8" dT="2025-01-14T18:30:57.21" personId="{F0EACA40-C33D-4B86-A1C6-AFE429C4FBA9}" id="{03810661-3997-4886-AF47-1686FD607D5F}">
     <text>Utilizar a Função =SE(SE()) Encadeado</text>
   </threadedComment>
+  <threadedComment ref="H8" dT="2025-01-14T18:30:57.21" personId="{F0EACA40-C33D-4B86-A1C6-AFE429C4FBA9}" id="{65CDBFEF-7632-4F91-8634-ECF2D25DF3FE}">
+    <text>Utilizar a Função =SES()</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -2127,7 +2192,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
@@ -2137,7 +2202,9 @@
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="26.5703125" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" customWidth="1"/>
-    <col min="5" max="7" width="9" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="9" customWidth="1"/>
     <col min="13" max="16384" width="9" hidden="1"/>
@@ -2320,10 +2387,10 @@
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="23" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>20</v>
@@ -2331,10 +2398,10 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="23" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>19</v>
@@ -2342,10 +2409,10 @@
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="24" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>19</v>
@@ -2353,73 +2420,115 @@
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="24" t="s">
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="24" t="s">
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:4"/>
-    <row r="29" spans="2:4" ht="21">
-      <c r="B29" s="20" t="s">
+    <row r="31" spans="2:4">
+      <c r="B31" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4"/>
+    <row r="33" spans="2:2" ht="21">
+      <c r="B33" s="20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="22" t="s">
+    <row r="34" spans="2:2">
+      <c r="B34" s="22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="2:4"/>
-    <row r="32" spans="2:4" ht="21">
-      <c r="B32" s="20" t="s">
+    <row r="35" spans="2:2"/>
+    <row r="36" spans="2:2" ht="21">
+      <c r="B36" s="20" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="22" t="s">
+    <row r="37" spans="2:2">
+      <c r="B37" s="22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="2:2"/>
-    <row r="35" spans="2:2" ht="21">
-      <c r="B35" s="20" t="s">
+    <row r="38" spans="2:2"/>
+    <row r="39" spans="2:2" ht="21">
+      <c r="B39" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="22" t="s">
+    <row r="40" spans="2:2">
+      <c r="B40" s="22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="22"/>
-    </row>
-    <row r="38" spans="2:2" ht="21">
-      <c r="B38" s="20" t="s">
+    <row r="41" spans="2:2">
+      <c r="B41" s="22"/>
+    </row>
+    <row r="42" spans="2:2" ht="21">
+      <c r="B42" s="20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="22" t="s">
+    <row r="43" spans="2:2">
+      <c r="B43" s="22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="2:2"/>
-    <row r="41" spans="2:2" ht="21">
-      <c r="B41" s="20" t="s">
+    <row r="45" spans="2:2" ht="21" hidden="1">
+      <c r="B45" s="20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="22" t="s">
+    <row r="46" spans="2:2" hidden="1">
+      <c r="B46" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="2:2"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B8:D8"/>
@@ -2428,11 +2537,11 @@
     <mergeCell ref="B22:D22"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B30" r:id="rId1" xr:uid="{F3BE2A38-E6DF-4073-8FDF-32C369800171}"/>
-    <hyperlink ref="B33" r:id="rId2" xr:uid="{D15DB636-A564-49AA-AE84-24624FBB08B6}"/>
-    <hyperlink ref="B36" r:id="rId3" xr:uid="{506C19D9-E055-450F-8FF6-95BF1C84C017}"/>
-    <hyperlink ref="B39" r:id="rId4" xr:uid="{D98ECC47-E5F6-46E9-80E6-6E275A5A6227}"/>
-    <hyperlink ref="B42" r:id="rId5" xr:uid="{1A6CEC95-8B31-49D1-85A2-CDAB0617F495}"/>
+    <hyperlink ref="B34" r:id="rId1" xr:uid="{F3BE2A38-E6DF-4073-8FDF-32C369800171}"/>
+    <hyperlink ref="B37" r:id="rId2" xr:uid="{D15DB636-A564-49AA-AE84-24624FBB08B6}"/>
+    <hyperlink ref="B40" r:id="rId3" xr:uid="{506C19D9-E055-450F-8FF6-95BF1C84C017}"/>
+    <hyperlink ref="B43" r:id="rId4" xr:uid="{D98ECC47-E5F6-46E9-80E6-6E275A5A6227}"/>
+    <hyperlink ref="B46" r:id="rId5" xr:uid="{1A6CEC95-8B31-49D1-85A2-CDAB0617F495}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="597" r:id="rId6"/>
@@ -2442,7 +2551,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2453,14 +2562,15 @@
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="15" width="9.140625" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" hidden="1"/>
+    <col min="8" max="8" width="33.85546875" style="1" customWidth="1"/>
+    <col min="9" max="16" width="9.140625" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="12" customFormat="1" ht="14.25">
+    <row r="1" spans="1:9" s="12" customFormat="1" ht="14.25">
       <c r="A1" s="11"/>
     </row>
-    <row r="2" spans="1:8" s="12" customFormat="1" ht="14.25" customHeight="1">
+    <row r="2" spans="1:9" s="12" customFormat="1" ht="14.25" customHeight="1">
       <c r="B2" s="39" t="s">
         <v>68</v>
       </c>
@@ -2469,41 +2579,46 @@
       <c r="E2" s="39"/>
       <c r="F2" s="39"/>
       <c r="G2" s="39"/>
-    </row>
-    <row r="3" spans="1:8" s="12" customFormat="1" ht="14.25" customHeight="1">
+      <c r="H2" s="39"/>
+    </row>
+    <row r="3" spans="1:9" s="12" customFormat="1" ht="14.25" customHeight="1">
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
-    </row>
-    <row r="4" spans="1:8" s="12" customFormat="1" ht="14.25" customHeight="1">
+      <c r="H3" s="39"/>
+    </row>
+    <row r="4" spans="1:9" s="12" customFormat="1" ht="14.25" customHeight="1">
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
-    </row>
-    <row r="5" spans="1:8" s="12" customFormat="1" ht="14.25" customHeight="1">
+      <c r="H4" s="39"/>
+    </row>
+    <row r="5" spans="1:9" s="12" customFormat="1" ht="14.25" customHeight="1">
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
       <c r="D5" s="39"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
-    </row>
-    <row r="6" spans="1:8" s="12" customFormat="1" ht="14.25" customHeight="1">
+      <c r="H5" s="39"/>
+    </row>
+    <row r="6" spans="1:9" s="12" customFormat="1" ht="14.25" customHeight="1">
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
-    </row>
-    <row r="7" spans="1:8" s="12" customFormat="1" ht="14.25"/>
-    <row r="8" spans="1:8">
+      <c r="H6" s="39"/>
+    </row>
+    <row r="7" spans="1:9" s="12" customFormat="1" ht="14.25"/>
+    <row r="8" spans="1:9">
       <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
@@ -2522,8 +2637,11 @@
       <c r="G8" s="28" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="H8" s="28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" s="25" t="s">
         <v>62</v>
       </c>
@@ -2534,9 +2652,10 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="H9" s="7"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" s="6" t="s">
         <v>23</v>
       </c>
@@ -2547,9 +2666,10 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="H10" s="7"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="B11" s="25" t="s">
         <v>67</v>
       </c>
@@ -2560,9 +2680,10 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="H11" s="7"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" s="25" t="s">
         <v>62</v>
       </c>
@@ -2573,9 +2694,10 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="H12" s="7"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
@@ -2586,8 +2708,9 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="B14" s="6" t="s">
         <v>26</v>
       </c>
@@ -2598,8 +2721,9 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" s="6" t="s">
         <v>28</v>
       </c>
@@ -2610,8 +2734,9 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" s="6" t="s">
         <v>29</v>
       </c>
@@ -2622,8 +2747,9 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="2:7">
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17" s="25" t="s">
         <v>62</v>
       </c>
@@ -2634,8 +2760,9 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="2:7">
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="2:8">
       <c r="B18" s="6" t="s">
         <v>30</v>
       </c>
@@ -2646,8 +2773,9 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="2:7">
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="2:8">
       <c r="B19" s="6" t="s">
         <v>31</v>
       </c>
@@ -2658,8 +2786,9 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="2:7">
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="2:8">
       <c r="B20" s="6" t="s">
         <v>32</v>
       </c>
@@ -2670,8 +2799,9 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="2:7">
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="2:8">
       <c r="B21" s="25" t="s">
         <v>62</v>
       </c>
@@ -2682,8 +2812,9 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="2:7">
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="2:8">
       <c r="B22" s="6" t="s">
         <v>34</v>
       </c>
@@ -2694,48 +2825,50 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="2:7">
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="2:8">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="2:7" ht="21">
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="2:8" ht="21">
       <c r="B24" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:8">
       <c r="B25" s="22" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="2:7"/>
-    <row r="27" spans="2:7" ht="21">
+    <row r="26" spans="2:8"/>
+    <row r="27" spans="2:8" ht="21">
       <c r="B27" s="20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:8">
       <c r="B28" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="2:7"/>
-    <row r="30" spans="2:7" ht="21">
+    <row r="29" spans="2:8"/>
+    <row r="30" spans="2:8" ht="21">
       <c r="B30" s="20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:8">
       <c r="B31" s="22" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="2:7"/>
+    <row r="32" spans="2:8"/>
     <row r="33" spans="2:2" ht="21">
       <c r="B33" s="20" t="s">
         <v>79</v>
@@ -2749,7 +2882,7 @@
     <row r="35" spans="2:2"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:G6"/>
+    <mergeCell ref="B2:H6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B25" r:id="rId1" xr:uid="{9C3135D1-BF65-4BA2-B9C5-0687B15601CC}"/>
